--- a/Fuctionality&Requirements/ProgramFunctionality/Document.xlsx
+++ b/Fuctionality&Requirements/ProgramFunctionality/Document.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB94441-DE29-4E93-AD6E-A655B11C772F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09501194-CB82-4DEB-97D1-117337C333DE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12840" yWindow="855" windowWidth="14595" windowHeight="14745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2340" yWindow="1305" windowWidth="16485" windowHeight="14895" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Documents(Drawnings)Maint" sheetId="1" r:id="rId1"/>
+    <sheet name="DocumentsDrawningsMaint" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="240">
   <si>
     <t>№</t>
   </si>
@@ -190,24 +190,12 @@
     <t>If the user clicks on the "Undo" item all changes should be reverted.</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (maint) note</t>
-  </si>
-  <si>
     <t>If the user click on the "Note" item the next program should open for the selected document:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) drawing_combination</t>
-  </si>
-  <si>
     <t>If the user click on the "Documents" item the next program should open for the selected document:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) location_combination</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (browse) contact_combination</t>
-  </si>
-  <si>
     <t>If the user click on the "Address" item the next program should open for the selected document:</t>
   </si>
   <si>
@@ -286,12 +274,6 @@
     <t>If the user clicks on the "View detailed information" the program that should be opened depends on the field to which the user is focused. The next programs should open for the correspond values in fields:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (maint) site if the user is focused on the "Site" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (maint) supplier if the user is focused on the "Supplier key" field</t>
-  </si>
-  <si>
     <t>If the user clicks on the "First" item and no document is selected then the document with the least key should be opened in the program window.</t>
   </si>
   <si>
@@ -316,30 +298,12 @@
     <t>If the user clicks on the "Last" item and any document is selected then the document with the greatest key should be opened in the program window.</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (maint) drawing if the user is focused on the "Document key" field</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Point and shoot" the program that should be opened depends on the field to which the user is focused. The next programs should open for the correspond values in fields:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) site if the user is focused on the "Site" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (browse) drawing if the user is focused on the "Document key" field</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (browse) supplier if the user is focused on the "Supplier key" field</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Tree" the program that should be opened depends on the field to which the user is focused. The next programs should open for the correspond values in fields:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (apicbf) drawing_tree</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (apicbf) drawing_tree if the user is focused on the "Document key" field</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Tab on the next page" item the next tab should be opened in the program window.</t>
   </si>
   <si>
@@ -394,15 +358,9 @@
     <t>If the user clicks on the "Included in" item the next program should be opened for the related document:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) drinclin</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Document storage history" item the next program should be opened for the selected document:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) ds_history </t>
-  </si>
-  <si>
     <t>If the user clicks on the "All document storage history" item the next program should be opened with "Filter criteria" window:</t>
   </si>
   <si>
@@ -619,9 +577,6 @@
     <t>If the user clicks on the "Point and Shoot" button near the "Document key" field then the next program should open:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) drawing</t>
-  </si>
-  <si>
     <t>If the user clicks on the "Tree" button near the "Document key" field then the next program should open:</t>
   </si>
   <si>
@@ -634,9 +589,6 @@
     <t>If the user clicks on the "Point and Shoot" button near the "Supplier key" field, then the next program should open:</t>
   </si>
   <si>
-    <t xml:space="preserve"> - (browse) supplier</t>
-  </si>
-  <si>
     <t>The user should be able to select the supplier from (browse) supplier program. The key of the selected supplier should be displayed in the "Supplier key" field. If the user select a new value in the "Supplier key" field, the "Document" program should switch to edit mode.</t>
   </si>
   <si>
@@ -647,9 +599,6 @@
   </si>
   <si>
     <t>If the user clicks on the "Point and Shoot" button near the "Site" field, then the next program should open:</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> - (browse) site</t>
   </si>
   <si>
     <t>The user should be able to select the site from (browse) site program. The key of the selected site should be displayed in the "Site" field. If the user select a new value in the "Site key" field, the "Document" program should switch to edit mode.</t>
@@ -1132,7 +1081,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="86">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1155,16 +1104,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1173,36 +1122,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1215,12 +1149,45 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1230,6 +1197,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1239,149 +1227,77 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1666,15 +1582,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:C317"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F311" sqref="F311"/>
+    <sheetView tabSelected="1" topLeftCell="A308" workbookViewId="0">
+      <selection activeCell="B313" sqref="B313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
     <col min="2" max="2" width="75.7109375" style="12" customWidth="1"/>
-    <col min="3" max="3" width="20.42578125" style="80" customWidth="1"/>
+    <col min="3" max="3" width="20.42578125" style="32" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1690,19 +1606,19 @@
       </c>
     </row>
     <row r="4" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="44" t="s">
+      <c r="A4" s="54" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="45"/>
-      <c r="C4" s="46"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="56"/>
     </row>
     <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="55" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85767","C85767")</f>
+      <c r="C5" s="26" t="str">
+        <f t="shared" ref="C5:C11" si="0">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85767","C85767")</f>
         <v>C85767</v>
       </c>
     </row>
@@ -1711,8 +1627,8 @@
       <c r="B6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85767","C85767")</f>
+      <c r="C6" s="27" t="str">
+        <f t="shared" si="0"/>
         <v>C85767</v>
       </c>
     </row>
@@ -1721,8 +1637,8 @@
       <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85767","C85767")</f>
+      <c r="C7" s="27" t="str">
+        <f t="shared" si="0"/>
         <v>C85767</v>
       </c>
     </row>
@@ -1731,8 +1647,8 @@
       <c r="B8" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85767","C85767")</f>
+      <c r="C8" s="27" t="str">
+        <f t="shared" si="0"/>
         <v>C85767</v>
       </c>
     </row>
@@ -1741,8 +1657,8 @@
       <c r="B9" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85767","C85767")</f>
+      <c r="C9" s="27" t="str">
+        <f t="shared" si="0"/>
         <v>C85767</v>
       </c>
     </row>
@@ -1751,8 +1667,8 @@
       <c r="B10" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85767","C85767")</f>
+      <c r="C10" s="27" t="str">
+        <f t="shared" si="0"/>
         <v>C85767</v>
       </c>
     </row>
@@ -1761,24 +1677,24 @@
       <c r="B11" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85767","C85767")</f>
+      <c r="C11" s="27" t="str">
+        <f t="shared" si="0"/>
         <v>C85767</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="44" t="s">
+      <c r="A12" s="54" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="56"/>
     </row>
     <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8"/>
       <c r="B13" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="55" t="str">
+      <c r="C13" s="26" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85767","C85767")</f>
         <v>C85767</v>
       </c>
@@ -1788,2484 +1704,2534 @@
       <c r="B14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="56" t="str">
+      <c r="C14" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85767","C85767")</f>
         <v>C85767</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
+      <c r="A15" s="57"/>
       <c r="B15" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="57" t="str">
+      <c r="C15" s="63" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85767","C85767")</f>
         <v>C85767</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="42"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="58"/>
+      <c r="C16" s="64"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="42"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="58"/>
+      <c r="C17" s="64"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="42"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="58"/>
+      <c r="C18" s="64"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="42"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="58"/>
+      <c r="C19" s="64"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="43"/>
+      <c r="A20" s="58"/>
       <c r="B20" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="58"/>
+      <c r="C20" s="64"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="48"/>
+      <c r="A21" s="65"/>
       <c r="B21" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="69" t="str">
+      <c r="C21" s="68" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85767","C85767")</f>
         <v>C85767</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
+      <c r="A22" s="66"/>
       <c r="B22" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="59"/>
+      <c r="C22" s="69"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
+      <c r="A23" s="66"/>
       <c r="B23" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="59"/>
+      <c r="C23" s="69"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
+      <c r="A24" s="66"/>
       <c r="B24" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="59"/>
+      <c r="C24" s="69"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
+      <c r="A25" s="66"/>
       <c r="B25" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="59"/>
+      <c r="C25" s="69"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="49"/>
+      <c r="A26" s="66"/>
       <c r="B26" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="59"/>
+      <c r="C26" s="69"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="59"/>
+      <c r="C27" s="69"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
+      <c r="A28" s="66"/>
       <c r="B28" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="59"/>
+      <c r="C28" s="69"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="C29" s="59"/>
+      <c r="C29" s="69"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
+      <c r="A30" s="66"/>
       <c r="B30" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C30" s="59"/>
+      <c r="C30" s="69"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" s="49"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C31" s="59"/>
+      <c r="C31" s="69"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
+      <c r="A32" s="66"/>
       <c r="B32" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C32" s="59"/>
+      <c r="C32" s="69"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
+      <c r="A33" s="66"/>
       <c r="B33" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="59"/>
+      <c r="C33" s="69"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="50"/>
-      <c r="B34" s="15" t="s">
+      <c r="A34" s="67"/>
+      <c r="B34" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="C34" s="60"/>
+      <c r="C34" s="70"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="16" t="s">
+      <c r="A35" s="57"/>
+      <c r="B35" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="C35" s="70" t="str">
+      <c r="C35" s="59" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85767","C85767")</f>
         <v>C85767</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="42"/>
+      <c r="A36" s="61"/>
       <c r="B36" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="C36" s="61"/>
+      <c r="C36" s="62"/>
     </row>
     <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="43"/>
-      <c r="B37" s="15" t="s">
+      <c r="A37" s="58"/>
+      <c r="B37" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C37" s="62"/>
+      <c r="C37" s="60"/>
     </row>
     <row r="38" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="44" t="s">
+      <c r="A38" s="54" t="s">
         <v>37</v>
       </c>
-      <c r="B38" s="45"/>
-      <c r="C38" s="46"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="56"/>
     </row>
     <row r="39" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B39" s="39"/>
-      <c r="C39" s="40"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="46"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="51"/>
+      <c r="A40" s="71"/>
       <c r="B40" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="77" t="str">
+      <c r="C40" s="72" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85771","C85771")</f>
         <v>C85771</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="52"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="63"/>
+      <c r="C41" s="62"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="52"/>
+      <c r="A42" s="61"/>
       <c r="B42" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="63"/>
+      <c r="C42" s="62"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="52"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C43" s="63"/>
+      <c r="C43" s="62"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="52"/>
+      <c r="A44" s="61"/>
       <c r="B44" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="C44" s="63"/>
+      <c r="C44" s="62"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="52"/>
+      <c r="A45" s="61"/>
       <c r="B45" s="14" t="s">
         <v>34</v>
       </c>
-      <c r="C45" s="63"/>
+      <c r="C45" s="62"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="52"/>
+      <c r="A46" s="61"/>
       <c r="B46" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C46" s="63"/>
+      <c r="C46" s="62"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="52"/>
+      <c r="A47" s="61"/>
       <c r="B47" s="14" t="s">
         <v>42</v>
       </c>
-      <c r="C47" s="63"/>
+      <c r="C47" s="62"/>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="52"/>
+      <c r="A48" s="61"/>
       <c r="B48" s="14" t="s">
         <v>43</v>
       </c>
-      <c r="C48" s="63"/>
+      <c r="C48" s="62"/>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="52"/>
+      <c r="A49" s="61"/>
       <c r="B49" s="14" t="s">
-        <v>255</v>
-      </c>
-      <c r="C49" s="63"/>
+        <v>238</v>
+      </c>
+      <c r="C49" s="62"/>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="52"/>
+      <c r="A50" s="61"/>
       <c r="B50" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="C50" s="63"/>
+      <c r="C50" s="62"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="53"/>
-      <c r="B51" s="15" t="s">
+      <c r="A51" s="58"/>
+      <c r="B51" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C51" s="64"/>
+      <c r="C51" s="60"/>
     </row>
     <row r="52" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A52" s="17"/>
-      <c r="B52" s="18" t="s">
+      <c r="A52" s="15"/>
+      <c r="B52" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C52" s="78" t="str">
+      <c r="C52" s="27" t="str">
+        <f t="shared" ref="C52:C57" si="1">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85771","C85771")</f>
+        <v>C85771</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="15"/>
+      <c r="B53" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C53" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>C85771</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="15"/>
+      <c r="B54" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="C54" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>C85771</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="15"/>
+      <c r="B55" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>C85771</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="15"/>
+      <c r="B56" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C56" s="27" t="str">
+        <f t="shared" si="1"/>
+        <v>C85771</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A57" s="57"/>
+      <c r="B57" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="C57" s="59" t="str">
+        <f t="shared" si="1"/>
+        <v>C85771</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="58"/>
+      <c r="B58" s="35" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B663"," - (maint) note")</f>
+        <v xml:space="preserve"> - (maint) note</v>
+      </c>
+      <c r="C58" s="60"/>
+    </row>
+    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="57"/>
+      <c r="B59" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="59" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85771","C85771")</f>
         <v>C85771</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A53" s="17"/>
-      <c r="B53" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="C53" s="78" t="str">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="58"/>
+      <c r="B60" s="35" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B306"," - (browse) drawing_combination")</f>
+        <v xml:space="preserve"> - (browse) drawing_combination</v>
+      </c>
+      <c r="C60" s="60"/>
+    </row>
+    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="57"/>
+      <c r="B61" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="C61" s="59" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85771","C85771")</f>
         <v>C85771</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="17"/>
-      <c r="B54" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="C54" s="78" t="str">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="58"/>
+      <c r="B62" s="35" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B578"," - (browse) location_combination")</f>
+        <v xml:space="preserve"> - (browse) location_combination</v>
+      </c>
+      <c r="C62" s="60"/>
+    </row>
+    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A63" s="57"/>
+      <c r="B63" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="C63" s="59" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85771","C85771")</f>
         <v>C85771</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="17"/>
-      <c r="B55" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C55" s="78" t="str">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="58"/>
+      <c r="B64" s="35" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B172"," - (browse) contact_combination")</f>
+        <v xml:space="preserve"> - (browse) contact_combination</v>
+      </c>
+      <c r="C64" s="60"/>
+    </row>
+    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="17"/>
+      <c r="B65" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C65" s="30" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85771","C85771")</f>
         <v>C85771</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="17"/>
-      <c r="B56" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C56" s="78" t="str">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="C66" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85771","C85771")</f>
         <v>C85771</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="54"/>
-      <c r="B57" s="16" t="s">
-        <v>51</v>
-      </c>
-      <c r="C57" s="79" t="str">
+    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A67" s="16"/>
+      <c r="B67" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="C67" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85771","C85771")</f>
         <v>C85771</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="53"/>
-      <c r="B58" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C58" s="64"/>
-    </row>
-    <row r="59" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="54"/>
-      <c r="B59" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="C59" s="79" t="str">
+    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="16"/>
+      <c r="B68" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C68" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85771","C85771")</f>
         <v>C85771</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="53"/>
-      <c r="B60" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C60" s="64"/>
-    </row>
-    <row r="61" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="54"/>
-      <c r="B61" s="16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" s="79" t="str">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="C69" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85771","C85771")</f>
         <v>C85771</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="53"/>
-      <c r="B62" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="C62" s="64"/>
-    </row>
-    <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="54"/>
-      <c r="B63" s="16" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" s="79" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85771","C85771")</f>
-        <v>C85771</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="53"/>
-      <c r="B64" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="C64" s="64"/>
-    </row>
-    <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="19"/>
-      <c r="B65" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="C65" s="74" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85771","C85771")</f>
-        <v>C85771</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="18"/>
-      <c r="B66" s="18" t="s">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="57"/>
+      <c r="B70" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="C66" s="78" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85771","C85771")</f>
-        <v>C85771</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="18"/>
-      <c r="B67" s="18" t="s">
-        <v>60</v>
-      </c>
-      <c r="C67" s="78" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85771","C85771")</f>
-        <v>C85771</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="18"/>
-      <c r="B68" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="C68" s="78" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85771","C85771")</f>
-        <v>C85771</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="18"/>
-      <c r="B69" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="C69" s="78" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85771","C85771")</f>
-        <v>C85771</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="41"/>
-      <c r="B70" s="13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C70" s="70" t="str">
+      <c r="C70" s="59" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85772","C85772")</f>
         <v>C85772</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="42"/>
-      <c r="B71" s="20" t="s">
+      <c r="A71" s="61"/>
+      <c r="B71" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="C71" s="61"/>
+      <c r="C71" s="62"/>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="42"/>
-      <c r="B72" s="20" t="s">
+      <c r="A72" s="61"/>
+      <c r="B72" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C72" s="62"/>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="61"/>
+      <c r="B73" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C73" s="62"/>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="61"/>
+      <c r="B74" s="14" t="s">
+        <v>62</v>
+      </c>
+      <c r="C74" s="62"/>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="58"/>
+      <c r="B75" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C75" s="60"/>
+    </row>
+    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A76" s="16"/>
+      <c r="B76" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="C76" s="27" t="str">
+        <f t="shared" ref="C76:C81" si="2">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85772","C85772")</f>
+        <v>C85772</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A77" s="16"/>
+      <c r="B77" s="16" t="s">
         <v>64</v>
       </c>
-      <c r="C72" s="61"/>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="42"/>
-      <c r="B73" s="20" t="s">
+      <c r="C77" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>C85772</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A78" s="16"/>
+      <c r="B78" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="C78" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>C85772</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16" t="s">
+        <v>72</v>
+      </c>
+      <c r="C79" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>C85772</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A80" s="16"/>
+      <c r="B80" s="16" t="s">
         <v>65</v>
       </c>
-      <c r="C73" s="61"/>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="42"/>
-      <c r="B74" s="20" t="s">
+      <c r="C80" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>C85772</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="16"/>
+      <c r="B81" s="16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C81" s="27" t="str">
+        <f t="shared" si="2"/>
+        <v>C85772</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="57"/>
+      <c r="B82" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="C74" s="61"/>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="43"/>
-      <c r="B75" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" s="62"/>
-    </row>
-    <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="21"/>
-      <c r="B76" s="21" t="s">
-        <v>78</v>
-      </c>
-      <c r="C76" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85772","C85772")</f>
-        <v>C85772</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A77" s="21"/>
-      <c r="B77" s="21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C77" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85772","C85772")</f>
-        <v>C85772</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="21"/>
-      <c r="B78" s="21" t="s">
-        <v>75</v>
-      </c>
-      <c r="C78" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85772","C85772")</f>
-        <v>C85772</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="21"/>
-      <c r="B79" s="21" t="s">
-        <v>76</v>
-      </c>
-      <c r="C79" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85772","C85772")</f>
-        <v>C85772</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A80" s="21"/>
-      <c r="B80" s="21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C80" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85772","C85772")</f>
-        <v>C85772</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21" t="s">
-        <v>77</v>
-      </c>
-      <c r="C81" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85772","C85772")</f>
-        <v>C85772</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="41"/>
-      <c r="B82" s="13" t="s">
-        <v>70</v>
-      </c>
-      <c r="C82" s="70" t="str">
+      <c r="C82" s="59" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85773","C85773")</f>
         <v>C85773</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="42"/>
-      <c r="B83" s="20" t="s">
+      <c r="A83" s="61"/>
+      <c r="B83" s="14" t="s">
         <v>28</v>
       </c>
-      <c r="C83" s="61"/>
+      <c r="C83" s="62"/>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="42"/>
-      <c r="B84" s="20" t="s">
+      <c r="A84" s="61"/>
+      <c r="B84" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C84" s="61"/>
+      <c r="C84" s="62"/>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="42"/>
-      <c r="B85" s="20" t="s">
+      <c r="A85" s="61"/>
+      <c r="B85" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C85" s="61"/>
+      <c r="C85" s="62"/>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="42"/>
-      <c r="B86" s="20" t="s">
+      <c r="A86" s="61"/>
+      <c r="B86" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C86" s="61"/>
+      <c r="C86" s="62"/>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="42"/>
-      <c r="B87" s="20" t="s">
+      <c r="A87" s="61"/>
+      <c r="B87" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C87" s="61"/>
+      <c r="C87" s="62"/>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="42"/>
-      <c r="B88" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="C88" s="61"/>
+      <c r="A88" s="61"/>
+      <c r="B88" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C88" s="62"/>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="42"/>
-      <c r="B89" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="C89" s="61"/>
+      <c r="A89" s="61"/>
+      <c r="B89" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C89" s="62"/>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="42"/>
-      <c r="B90" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C90" s="61"/>
+      <c r="A90" s="61"/>
+      <c r="B90" s="14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C90" s="62"/>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="43"/>
+      <c r="A91" s="58"/>
       <c r="B91" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="C91" s="62"/>
+        <v>70</v>
+      </c>
+      <c r="C91" s="60"/>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="21"/>
-      <c r="B92" s="21" t="s">
+      <c r="A92" s="16"/>
+      <c r="B92" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C92" s="27" t="str">
+        <f t="shared" ref="C92:C102" si="3">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85773","C85773")</f>
+        <v>C85773</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A93" s="16"/>
+      <c r="B93" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C93" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>C85773</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A94" s="16"/>
+      <c r="B94" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="C92" s="56" t="str">
+      <c r="C94" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>C85773</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A95" s="16"/>
+      <c r="B95" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="C95" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>C85773</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A96" s="16"/>
+      <c r="B96" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C96" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>C85773</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="16"/>
+      <c r="B97" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="C97" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>C85773</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="16"/>
+      <c r="B98" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C98" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>C85773</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A99" s="16"/>
+      <c r="B99" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C99" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>C85773</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="16"/>
+      <c r="B100" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C100" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>C85773</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="16"/>
+      <c r="B101" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C101" s="27" t="str">
+        <f t="shared" si="3"/>
+        <v>C85773</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="57"/>
+      <c r="B102" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C102" s="59" t="str">
+        <f t="shared" si="3"/>
+        <v>C85773</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="61"/>
+      <c r="B103" s="36" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B301"," - (maint) drawing if the user is focused on the Document key field")</f>
+        <v xml:space="preserve"> - (maint) drawing if the user is focused on the Document key field</v>
+      </c>
+      <c r="C103" s="62"/>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="61"/>
+      <c r="B104" s="36" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B996"," - (maint) site if the user is focused on the Site field")</f>
+        <v xml:space="preserve"> - (maint) site if the user is focused on the Site field</v>
+      </c>
+      <c r="C104" s="62"/>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="58"/>
+      <c r="B105" s="35" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1146"," - (maint) supplier if the user is focused on the Supplier key field")</f>
+        <v xml:space="preserve"> - (maint) supplier if the user is focused on the Supplier key field</v>
+      </c>
+      <c r="C105" s="60"/>
+    </row>
+    <row r="106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A106" s="38"/>
+      <c r="B106" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="C106" s="41" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85773","C85773")</f>
         <v>C85773</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A93" s="21"/>
-      <c r="B93" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="C93" s="56" t="str">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="39"/>
+      <c r="B107" s="36" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B298"," - (browse) drawing if the user is focused on the Document key field")</f>
+        <v xml:space="preserve"> - (browse) drawing if the user is focused on the Document key field</v>
+      </c>
+      <c r="C107" s="42"/>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="39"/>
+      <c r="B108" s="36" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B994"," - (browse) site if the user is focused on the Site field")</f>
+        <v xml:space="preserve"> - (browse) site if the user is focused on the Site field</v>
+      </c>
+      <c r="C108" s="42"/>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="40"/>
+      <c r="B109" s="35" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1143"," - (browse) supplier if the user is focused on the Supplier key field")</f>
+        <v xml:space="preserve"> - (browse) supplier if the user is focused on the Supplier key field</v>
+      </c>
+      <c r="C109" s="43"/>
+    </row>
+    <row r="110" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="38"/>
+      <c r="B110" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="C110" s="41" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85773","C85773")</f>
         <v>C85773</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A94" s="21"/>
-      <c r="B94" s="21" t="s">
-        <v>85</v>
-      </c>
-      <c r="C94" s="56" t="str">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="40"/>
+      <c r="B111" s="35" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B310"," - (apicbf) drawing_tree if the user is focused on the Document key field")</f>
+        <v xml:space="preserve"> - (apicbf) drawing_tree if the user is focused on the Document key field</v>
+      </c>
+      <c r="C111" s="43"/>
+    </row>
+    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A112" s="17"/>
+      <c r="B112" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="C112" s="30" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85773","C85773")</f>
         <v>C85773</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A95" s="21"/>
-      <c r="B95" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C95" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85773","C85773")</f>
-        <v>C85773</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A96" s="21"/>
-      <c r="B96" s="21" t="s">
-        <v>87</v>
-      </c>
-      <c r="C96" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85773","C85773")</f>
-        <v>C85773</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A97" s="21"/>
-      <c r="B97" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C97" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85773","C85773")</f>
-        <v>C85773</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="21"/>
-      <c r="B98" s="21" t="s">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="38"/>
+      <c r="B113" s="13" t="s">
         <v>89</v>
       </c>
-      <c r="C98" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85773","C85773")</f>
-        <v>C85773</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="21"/>
-      <c r="B99" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C99" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85773","C85773")</f>
-        <v>C85773</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A100" s="21"/>
-      <c r="B100" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C100" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85773","C85773")</f>
-        <v>C85773</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A101" s="21"/>
-      <c r="B101" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="C101" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85773","C85773")</f>
-        <v>C85773</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A102" s="41"/>
-      <c r="B102" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="C102" s="70" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85773","C85773")</f>
-        <v>C85773</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="42"/>
-      <c r="B103" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C103" s="61"/>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="42"/>
-      <c r="B104" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C104" s="61"/>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="43"/>
-      <c r="B105" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="C105" s="62"/>
-    </row>
-    <row r="106" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A106" s="32"/>
-      <c r="B106" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="C106" s="72" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85773","C85773")</f>
-        <v>C85773</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="33"/>
-      <c r="B107" s="20" t="s">
-        <v>95</v>
-      </c>
-      <c r="C107" s="65"/>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="33"/>
-      <c r="B108" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C108" s="65"/>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="34"/>
-      <c r="B109" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="C109" s="66"/>
-    </row>
-    <row r="110" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A110" s="32"/>
-      <c r="B110" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="C110" s="72" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85773","C85773")</f>
-        <v>C85773</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="34"/>
-      <c r="B111" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="C111" s="66"/>
-    </row>
-    <row r="112" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A112" s="19"/>
-      <c r="B112" s="21" t="s">
-        <v>100</v>
-      </c>
-      <c r="C112" s="74" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85773","C85773")</f>
-        <v>C85773</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="32"/>
-      <c r="B113" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="C113" s="72" t="str">
+      <c r="C113" s="41" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85774","C85774")</f>
         <v>C85774</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="33"/>
+      <c r="A114" s="39"/>
       <c r="B114" s="14" t="s">
-        <v>102</v>
-      </c>
-      <c r="C114" s="65"/>
+        <v>90</v>
+      </c>
+      <c r="C114" s="42"/>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="33"/>
+      <c r="A115" s="39"/>
       <c r="B115" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="C115" s="65"/>
+        <v>91</v>
+      </c>
+      <c r="C115" s="42"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="33"/>
+      <c r="A116" s="39"/>
       <c r="B116" s="14" t="s">
-        <v>104</v>
-      </c>
-      <c r="C116" s="65"/>
+        <v>92</v>
+      </c>
+      <c r="C116" s="42"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="33"/>
+      <c r="A117" s="39"/>
       <c r="B117" s="14" t="s">
-        <v>105</v>
-      </c>
-      <c r="C117" s="65"/>
+        <v>93</v>
+      </c>
+      <c r="C117" s="42"/>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="33"/>
+      <c r="A118" s="39"/>
       <c r="B118" s="14" t="s">
-        <v>106</v>
-      </c>
-      <c r="C118" s="65"/>
+        <v>94</v>
+      </c>
+      <c r="C118" s="42"/>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="33"/>
+      <c r="A119" s="39"/>
       <c r="B119" s="14" t="s">
-        <v>107</v>
-      </c>
-      <c r="C119" s="65"/>
+        <v>95</v>
+      </c>
+      <c r="C119" s="42"/>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="33"/>
+      <c r="A120" s="39"/>
       <c r="B120" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="C120" s="65"/>
+        <v>96</v>
+      </c>
+      <c r="C120" s="42"/>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="33"/>
+      <c r="A121" s="39"/>
       <c r="B121" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="C121" s="65"/>
+        <v>97</v>
+      </c>
+      <c r="C121" s="42"/>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A122" s="33"/>
+      <c r="A122" s="39"/>
       <c r="B122" s="14" t="s">
-        <v>110</v>
-      </c>
-      <c r="C122" s="65"/>
+        <v>98</v>
+      </c>
+      <c r="C122" s="42"/>
     </row>
     <row r="123" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A123" s="41"/>
-      <c r="B123" s="22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C123" s="70" t="str">
+      <c r="A123" s="57"/>
+      <c r="B123" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C123" s="59" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85774","C85774")</f>
         <v>C85774</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A124" s="42"/>
-      <c r="B124" s="24" t="s">
+      <c r="A124" s="61"/>
+      <c r="B124" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="C124" s="62"/>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="61"/>
+      <c r="B125" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C125" s="62"/>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="61"/>
+      <c r="B126" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="C126" s="62"/>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="61"/>
+      <c r="B127" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="C127" s="62"/>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="61"/>
+      <c r="B128" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C128" s="62"/>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="61"/>
+      <c r="B129" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C129" s="62"/>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="61"/>
+      <c r="B130" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="C130" s="62"/>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="58"/>
+      <c r="B131" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C131" s="60"/>
+    </row>
+    <row r="132" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="22"/>
+      <c r="B132" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C132" s="31" t="str">
+        <f t="shared" ref="C132:C137" si="4">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85774","C85774")</f>
+        <v>C85774</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="22"/>
+      <c r="B133" s="16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C133" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>C85774</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="22"/>
+      <c r="B134" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="C124" s="61"/>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A125" s="42"/>
-      <c r="B125" s="24" t="s">
+      <c r="C134" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>C85774</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A135" s="22"/>
+      <c r="B135" s="16" t="s">
         <v>103</v>
       </c>
-      <c r="C125" s="61"/>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A126" s="42"/>
-      <c r="B126" s="24" t="s">
+      <c r="C135" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>C85774</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A136" s="22"/>
+      <c r="B136" s="16" t="s">
         <v>104</v>
       </c>
-      <c r="C126" s="61"/>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="42"/>
-      <c r="B127" s="24" t="s">
+      <c r="C136" s="31" t="str">
+        <f t="shared" si="4"/>
+        <v>C85774</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A137" s="38"/>
+      <c r="B137" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="C127" s="61"/>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="42"/>
-      <c r="B128" s="24" t="s">
+      <c r="C137" s="41" t="str">
+        <f t="shared" si="4"/>
+        <v>C85774</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="40"/>
+      <c r="B138" s="35" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B312"," - (browse) drinclin")</f>
+        <v xml:space="preserve"> - (browse) drinclin</v>
+      </c>
+      <c r="C138" s="43"/>
+    </row>
+    <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="38"/>
+      <c r="B139" s="13" t="s">
         <v>106</v>
       </c>
-      <c r="C128" s="61"/>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="42"/>
-      <c r="B129" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="C129" s="61"/>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A130" s="42"/>
-      <c r="B130" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="C130" s="61"/>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A131" s="43"/>
-      <c r="B131" s="25" t="s">
-        <v>110</v>
-      </c>
-      <c r="C131" s="62"/>
-    </row>
-    <row r="132" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A132" s="27"/>
-      <c r="B132" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="C132" s="75" t="str">
+      <c r="C139" s="41" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85774","C85774")</f>
         <v>C85774</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A133" s="27"/>
-      <c r="B133" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="C133" s="75" t="str">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="40"/>
+      <c r="B140" s="35" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B314"," - (browse) ds_history")</f>
+        <v xml:space="preserve"> - (browse) ds_history</v>
+      </c>
+      <c r="C140" s="43"/>
+    </row>
+    <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A141" s="38"/>
+      <c r="B141" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="C141" s="41" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85774","C85774")</f>
         <v>C85774</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="27"/>
-      <c r="B134" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="C134" s="75" t="str">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="40"/>
+      <c r="B142" s="35" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B314"," - (browse) ds_history")</f>
+        <v xml:space="preserve"> - (browse) ds_history</v>
+      </c>
+      <c r="C142" s="43"/>
+    </row>
+    <row r="143" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A143" s="17"/>
+      <c r="B143" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="C143" s="30" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85774","C85774")</f>
         <v>C85774</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A135" s="27"/>
-      <c r="B135" s="18" t="s">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="73"/>
+      <c r="B144" s="12" t="s">
+        <v>109</v>
+      </c>
+      <c r="C144" s="64"/>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="73"/>
+      <c r="B145" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C145" s="64"/>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="73"/>
+      <c r="B146" s="12" t="s">
+        <v>111</v>
+      </c>
+      <c r="C146" s="64"/>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="73"/>
+      <c r="B147" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="C147" s="64"/>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="73"/>
+      <c r="B148" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="C148" s="64"/>
+    </row>
+    <row r="149" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A149" s="16"/>
+      <c r="B149" s="23" t="s">
+        <v>114</v>
+      </c>
+      <c r="C149" s="10"/>
+    </row>
+    <row r="150" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A150" s="16"/>
+      <c r="B150" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C135" s="75" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85774","C85774")</f>
-        <v>C85774</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A136" s="27"/>
-      <c r="B136" s="18" t="s">
+      <c r="C150" s="10"/>
+    </row>
+    <row r="151" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A151" s="16"/>
+      <c r="B151" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C136" s="75" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85774","C85774")</f>
-        <v>C85774</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A137" s="32"/>
-      <c r="B137" s="16" t="s">
+      <c r="C151" s="10"/>
+    </row>
+    <row r="152" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A152" s="16"/>
+      <c r="B152" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="C137" s="72" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85774","C85774")</f>
-        <v>C85774</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A138" s="34"/>
-      <c r="B138" s="15" t="s">
+      <c r="C152" s="10"/>
+    </row>
+    <row r="153" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="16"/>
+      <c r="B153" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="C138" s="66"/>
-    </row>
-    <row r="139" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A139" s="32"/>
-      <c r="B139" s="16" t="s">
+      <c r="C153" s="10"/>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="16"/>
+      <c r="B154" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="C139" s="72" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85774","C85774")</f>
-        <v>C85774</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A140" s="34"/>
-      <c r="B140" s="15" t="s">
+      <c r="C154" s="10"/>
+    </row>
+    <row r="155" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A155" s="16"/>
+      <c r="B155" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="C140" s="66"/>
-    </row>
-    <row r="141" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A141" s="32"/>
-      <c r="B141" s="16" t="s">
+      <c r="C155" s="10"/>
+    </row>
+    <row r="156" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A156" s="16"/>
+      <c r="B156" s="23" t="s">
         <v>121</v>
       </c>
-      <c r="C141" s="72" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85774","C85774")</f>
-        <v>C85774</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A142" s="34"/>
-      <c r="B142" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="C142" s="66"/>
-    </row>
-    <row r="143" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A143" s="19"/>
-      <c r="B143" s="18" t="s">
+      <c r="C156" s="10"/>
+    </row>
+    <row r="157" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A157" s="16"/>
+      <c r="B157" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="C143" s="74" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85774","C85774")</f>
-        <v>C85774</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A144" s="47"/>
-      <c r="B144" s="12" t="s">
+      <c r="C157" s="10"/>
+    </row>
+    <row r="158" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A158" s="54" t="s">
         <v>123</v>
       </c>
-      <c r="C144" s="58"/>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A145" s="47"/>
-      <c r="B145" s="12" t="s">
+      <c r="B158" s="55"/>
+      <c r="C158" s="56"/>
+    </row>
+    <row r="159" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="44" t="s">
         <v>124</v>
       </c>
-      <c r="C145" s="58"/>
-    </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A146" s="47"/>
-      <c r="B146" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C146" s="58"/>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A147" s="47"/>
-      <c r="B147" s="12" t="s">
-        <v>126</v>
-      </c>
-      <c r="C147" s="58"/>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="47"/>
-      <c r="B148" s="12" t="s">
+      <c r="B159" s="45"/>
+      <c r="C159" s="46"/>
+    </row>
+    <row r="160" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A160" s="14"/>
+      <c r="B160" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="C148" s="58"/>
-    </row>
-    <row r="149" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A149" s="21"/>
-      <c r="B149" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="C149" s="81"/>
-    </row>
-    <row r="150" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="21"/>
-      <c r="B150" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="C150" s="81"/>
-    </row>
-    <row r="151" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="21"/>
-      <c r="B151" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="C151" s="81"/>
-    </row>
-    <row r="152" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A152" s="21"/>
-      <c r="B152" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="C152" s="81"/>
-    </row>
-    <row r="153" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A153" s="21"/>
-      <c r="B153" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="C153" s="81"/>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A154" s="21"/>
-      <c r="B154" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C154" s="81"/>
-    </row>
-    <row r="155" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="21"/>
-      <c r="B155" s="28" t="s">
-        <v>134</v>
-      </c>
-      <c r="C155" s="81"/>
-    </row>
-    <row r="156" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="21"/>
-      <c r="B156" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="C156" s="81"/>
-    </row>
-    <row r="157" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A157" s="21"/>
-      <c r="B157" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C157" s="81"/>
-    </row>
-    <row r="158" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A158" s="44" t="s">
-        <v>137</v>
-      </c>
-      <c r="B158" s="45"/>
-      <c r="C158" s="46"/>
-    </row>
-    <row r="159" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A159" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="B159" s="39"/>
-      <c r="C159" s="40"/>
-    </row>
-    <row r="160" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" s="20"/>
-      <c r="B160" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="C160" s="82" t="str">
+      <c r="C160" s="28" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85767","C85767")</f>
         <v>C85767</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A161" s="21"/>
-      <c r="B161" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="C161" s="56" t="str">
+      <c r="A161" s="16"/>
+      <c r="B161" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="C161" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85767","C85767")</f>
         <v>C85767</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A162" s="21"/>
-      <c r="B162" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="C162" s="56" t="str">
+      <c r="A162" s="16"/>
+      <c r="B162" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="C162" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85775","C85775")</f>
         <v>C85775</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="21"/>
-      <c r="B163" s="21" t="s">
-        <v>142</v>
-      </c>
-      <c r="C163" s="56" t="str">
+      <c r="A163" s="16"/>
+      <c r="B163" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C163" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85775","C85775")</f>
         <v>C85775</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A164" s="21"/>
-      <c r="B164" s="21" t="s">
-        <v>143</v>
-      </c>
-      <c r="C164" s="56" t="str">
+      <c r="A164" s="16"/>
+      <c r="B164" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="C164" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85775","C85775")</f>
         <v>C85775</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A165" s="21"/>
-      <c r="B165" s="21" t="s">
-        <v>144</v>
-      </c>
-      <c r="C165" s="56" t="str">
+      <c r="A165" s="16"/>
+      <c r="B165" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C165" s="27" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85775","C85775")</f>
         <v>C85775</v>
       </c>
     </row>
     <row r="166" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="41"/>
+      <c r="A166" s="57"/>
       <c r="B166" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="C166" s="70" t="str">
+        <v>131</v>
+      </c>
+      <c r="C166" s="59" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85775","C85775")</f>
         <v>C85775</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A167" s="43"/>
-      <c r="B167" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C167" s="62"/>
+      <c r="A167" s="58"/>
+      <c r="B167" s="35" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B663"," - (maint) note")</f>
+        <v xml:space="preserve"> - (maint) note</v>
+      </c>
+      <c r="C167" s="60"/>
     </row>
     <row r="168" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="41"/>
+      <c r="A168" s="57"/>
       <c r="B168" s="13" t="s">
-        <v>146</v>
-      </c>
-      <c r="C168" s="70" t="str">
+        <v>132</v>
+      </c>
+      <c r="C168" s="59" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85775","C85775")</f>
         <v>C85775</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A169" s="43"/>
-      <c r="B169" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="C169" s="62"/>
+      <c r="A169" s="58"/>
+      <c r="B169" s="35" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B306"," - (browse) drawing_combination")</f>
+        <v xml:space="preserve"> - (browse) drawing_combination</v>
+      </c>
+      <c r="C169" s="60"/>
     </row>
     <row r="170" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="41"/>
+      <c r="A170" s="57"/>
       <c r="B170" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="C170" s="70" t="str">
+        <v>133</v>
+      </c>
+      <c r="C170" s="59" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85775","C85775")</f>
         <v>C85775</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A171" s="43"/>
-      <c r="B171" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="C171" s="62"/>
+      <c r="A171" s="58"/>
+      <c r="B171" s="35" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B578"," - (browse) location_combination")</f>
+        <v xml:space="preserve"> - (browse) location_combination</v>
+      </c>
+      <c r="C171" s="60"/>
     </row>
     <row r="172" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="41"/>
+      <c r="A172" s="57"/>
       <c r="B172" s="13" t="s">
-        <v>148</v>
-      </c>
-      <c r="C172" s="70" t="str">
+        <v>134</v>
+      </c>
+      <c r="C172" s="59" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85775","C85775")</f>
         <v>C85775</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A173" s="43"/>
-      <c r="B173" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="C173" s="62"/>
+      <c r="A173" s="58"/>
+      <c r="B173" s="35" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B172"," - (browse) contact_combination")</f>
+        <v xml:space="preserve"> - (browse) contact_combination</v>
+      </c>
+      <c r="C173" s="60"/>
     </row>
     <row r="174" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="21"/>
-      <c r="B174" s="21" t="s">
-        <v>149</v>
-      </c>
-      <c r="C174" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85775","C85775")</f>
+      <c r="A174" s="16"/>
+      <c r="B174" s="16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C174" s="27" t="str">
+        <f t="shared" ref="C174:C182" si="5">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85775","C85775")</f>
         <v>C85775</v>
       </c>
     </row>
     <row r="175" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A175" s="21"/>
-      <c r="B175" s="21" t="s">
-        <v>150</v>
-      </c>
-      <c r="C175" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85775","C85775")</f>
+      <c r="A175" s="16"/>
+      <c r="B175" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C175" s="27" t="str">
+        <f t="shared" si="5"/>
         <v>C85775</v>
       </c>
     </row>
     <row r="176" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="21"/>
-      <c r="B176" s="21" t="s">
-        <v>151</v>
-      </c>
-      <c r="C176" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85775","C85775")</f>
+      <c r="A176" s="16"/>
+      <c r="B176" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="C176" s="27" t="str">
+        <f t="shared" si="5"/>
         <v>C85775</v>
       </c>
     </row>
     <row r="177" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="21"/>
-      <c r="B177" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="C177" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85775","C85775")</f>
+      <c r="A177" s="16"/>
+      <c r="B177" s="16" t="s">
+        <v>138</v>
+      </c>
+      <c r="C177" s="27" t="str">
+        <f t="shared" si="5"/>
         <v>C85775</v>
       </c>
     </row>
     <row r="178" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="21"/>
-      <c r="B178" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="C178" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85775","C85775")</f>
+      <c r="A178" s="16"/>
+      <c r="B178" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C178" s="27" t="str">
+        <f t="shared" si="5"/>
         <v>C85775</v>
       </c>
     </row>
     <row r="179" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="21"/>
-      <c r="B179" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="C179" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85775","C85775")</f>
+      <c r="A179" s="16"/>
+      <c r="B179" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="C179" s="27" t="str">
+        <f t="shared" si="5"/>
         <v>C85775</v>
       </c>
     </row>
     <row r="180" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="21"/>
-      <c r="B180" s="21" t="s">
-        <v>80</v>
-      </c>
-      <c r="C180" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85775","C85775")</f>
+      <c r="A180" s="16"/>
+      <c r="B180" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="C180" s="27" t="str">
+        <f t="shared" si="5"/>
         <v>C85775</v>
       </c>
     </row>
     <row r="181" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="21"/>
-      <c r="B181" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="C181" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85775","C85775")</f>
+      <c r="A181" s="16"/>
+      <c r="B181" s="16" t="s">
+        <v>141</v>
+      </c>
+      <c r="C181" s="27" t="str">
+        <f t="shared" si="5"/>
         <v>C85775</v>
       </c>
     </row>
     <row r="182" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="21"/>
-      <c r="B182" s="21" t="s">
-        <v>156</v>
-      </c>
-      <c r="C182" s="56" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85775","C85775")</f>
+      <c r="A182" s="16"/>
+      <c r="B182" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="C182" s="27" t="str">
+        <f t="shared" si="5"/>
         <v>C85775</v>
       </c>
     </row>
     <row r="183" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A183" s="44" t="s">
-        <v>157</v>
-      </c>
-      <c r="B183" s="45"/>
-      <c r="C183" s="46"/>
+      <c r="A183" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="B183" s="55"/>
+      <c r="C183" s="56"/>
     </row>
     <row r="184" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A184" s="38" t="s">
+      <c r="A184" s="44" t="s">
         <v>38</v>
       </c>
-      <c r="B184" s="39"/>
-      <c r="C184" s="40"/>
+      <c r="B184" s="45"/>
+      <c r="C184" s="46"/>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A185" s="42"/>
-      <c r="B185" s="20" t="s">
-        <v>158</v>
-      </c>
-      <c r="C185" s="71" t="str">
+      <c r="A185" s="61"/>
+      <c r="B185" s="14" t="s">
+        <v>144</v>
+      </c>
+      <c r="C185" s="74" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85767","C85767")</f>
         <v>C85767</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A186" s="42"/>
-      <c r="B186" s="20" t="s">
-        <v>159</v>
-      </c>
-      <c r="C186" s="61"/>
+      <c r="A186" s="61"/>
+      <c r="B186" s="14" t="s">
+        <v>145</v>
+      </c>
+      <c r="C186" s="62"/>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A187" s="42"/>
-      <c r="B187" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C187" s="61"/>
+      <c r="A187" s="61"/>
+      <c r="B187" s="14" t="s">
+        <v>146</v>
+      </c>
+      <c r="C187" s="62"/>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A188" s="42"/>
-      <c r="B188" s="20" t="s">
+      <c r="A188" s="61"/>
+      <c r="B188" s="14" t="s">
+        <v>147</v>
+      </c>
+      <c r="C188" s="62"/>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="61"/>
+      <c r="B189" s="14" t="s">
+        <v>93</v>
+      </c>
+      <c r="C189" s="62"/>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="58"/>
+      <c r="B190" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C190" s="60"/>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="57"/>
+      <c r="B191" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="C188" s="61"/>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A189" s="42"/>
-      <c r="B189" s="20" t="s">
-        <v>105</v>
-      </c>
-      <c r="C189" s="61"/>
-    </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A190" s="43"/>
-      <c r="B190" s="5" t="s">
-        <v>107</v>
-      </c>
-      <c r="C190" s="62"/>
-    </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A191" s="41"/>
-      <c r="B191" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="C191" s="70" t="str">
+      <c r="C191" s="59" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85767","C85767")</f>
         <v>C85767</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A192" s="42"/>
-      <c r="B192" s="20" t="s">
-        <v>176</v>
-      </c>
-      <c r="C192" s="61"/>
+      <c r="A192" s="61"/>
+      <c r="B192" s="14" t="s">
+        <v>162</v>
+      </c>
+      <c r="C192" s="62"/>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A193" s="43"/>
+      <c r="A193" s="58"/>
       <c r="B193" s="5" t="s">
-        <v>177</v>
-      </c>
-      <c r="C193" s="62"/>
+        <v>163</v>
+      </c>
+      <c r="C193" s="60"/>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A194" s="32"/>
-      <c r="B194" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="C194" s="72" t="str">
+      <c r="A194" s="38"/>
+      <c r="B194" s="18" t="s">
+        <v>166</v>
+      </c>
+      <c r="C194" s="41" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85767","C85767")</f>
         <v>C85767</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A195" s="33"/>
-      <c r="B195" s="24" t="s">
-        <v>162</v>
-      </c>
-      <c r="C195" s="65"/>
+      <c r="A195" s="39"/>
+      <c r="B195" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="C195" s="42"/>
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A196" s="33"/>
-      <c r="B196" s="24" t="s">
-        <v>163</v>
-      </c>
-      <c r="C196" s="65"/>
+      <c r="A196" s="39"/>
+      <c r="B196" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C196" s="42"/>
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A197" s="33"/>
-      <c r="B197" s="24" t="s">
+      <c r="A197" s="39"/>
+      <c r="B197" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="C197" s="42"/>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="39"/>
+      <c r="B198" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="C198" s="42"/>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="39"/>
+      <c r="B199" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="C199" s="42"/>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="39"/>
+      <c r="B200" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C200" s="42"/>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="39"/>
+      <c r="B201" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="C201" s="42"/>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="39"/>
+      <c r="B202" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="C202" s="42"/>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="39"/>
+      <c r="B203" s="12" t="s">
+        <v>156</v>
+      </c>
+      <c r="C203" s="42"/>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="39"/>
+      <c r="B204" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="C204" s="42"/>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="39"/>
+      <c r="B205" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C205" s="42"/>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="39"/>
+      <c r="B206" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="C206" s="42"/>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="39"/>
+      <c r="B207" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C207" s="42"/>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="39"/>
+      <c r="B208" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C208" s="42"/>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="39"/>
+      <c r="B209" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C197" s="65"/>
-    </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A198" s="33"/>
-      <c r="B198" s="24" t="s">
+      <c r="C209" s="42"/>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="39"/>
+      <c r="B210" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C198" s="65"/>
-    </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A199" s="33"/>
-      <c r="B199" s="24" t="s">
-        <v>166</v>
-      </c>
-      <c r="C199" s="65"/>
-    </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A200" s="33"/>
-      <c r="B200" s="24" t="s">
+      <c r="C210" s="42"/>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="39"/>
+      <c r="B211" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C200" s="65"/>
-    </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A201" s="33"/>
-      <c r="B201" s="24" t="s">
+      <c r="C211" s="42"/>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="40"/>
+      <c r="B212" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="C201" s="65"/>
-    </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A202" s="33"/>
-      <c r="B202" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="C202" s="65"/>
-    </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A203" s="33"/>
-      <c r="B203" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="C203" s="65"/>
-    </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A204" s="33"/>
-      <c r="B204" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="C204" s="65"/>
-    </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A205" s="33"/>
-      <c r="B205" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="C205" s="65"/>
-    </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A206" s="33"/>
-      <c r="B206" s="24" t="s">
-        <v>254</v>
-      </c>
-      <c r="C206" s="65"/>
-    </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A207" s="33"/>
-      <c r="B207" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="C207" s="65"/>
-    </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A208" s="33"/>
-      <c r="B208" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="C208" s="65"/>
-    </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A209" s="33"/>
-      <c r="B209" s="24" t="s">
-        <v>178</v>
-      </c>
-      <c r="C209" s="65"/>
-    </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A210" s="33"/>
-      <c r="B210" s="24" t="s">
-        <v>179</v>
-      </c>
-      <c r="C210" s="65"/>
-    </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A211" s="33"/>
-      <c r="B211" s="24" t="s">
-        <v>181</v>
-      </c>
-      <c r="C211" s="65"/>
-    </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A212" s="34"/>
-      <c r="B212" s="24" t="s">
-        <v>182</v>
-      </c>
-      <c r="C212" s="66"/>
+      <c r="C212" s="43"/>
     </row>
     <row r="213" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A213" s="26"/>
-      <c r="B213" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="C213" s="73" t="str">
+      <c r="A213" s="21"/>
+      <c r="B213" s="16" t="s">
+        <v>188</v>
+      </c>
+      <c r="C213" s="29" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85767","C85767")</f>
         <v>C85767</v>
       </c>
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A214" s="32"/>
+      <c r="A214" s="38"/>
       <c r="B214" s="13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C214" s="72" t="str">
+        <v>169</v>
+      </c>
+      <c r="C214" s="41" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85767","C85767")</f>
         <v>C85767</v>
       </c>
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A215" s="33"/>
+      <c r="A215" s="39"/>
       <c r="B215" s="14" t="s">
-        <v>184</v>
-      </c>
-      <c r="C215" s="65"/>
+        <v>170</v>
+      </c>
+      <c r="C215" s="42"/>
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A216" s="33"/>
+      <c r="A216" s="39"/>
       <c r="B216" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="C216" s="65"/>
+        <v>171</v>
+      </c>
+      <c r="C216" s="42"/>
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A217" s="33"/>
+      <c r="A217" s="39"/>
       <c r="B217" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="C217" s="65"/>
+        <v>172</v>
+      </c>
+      <c r="C217" s="42"/>
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A218" s="34"/>
-      <c r="B218" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="C218" s="66"/>
+      <c r="A218" s="40"/>
+      <c r="B218" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C218" s="43"/>
     </row>
     <row r="219" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A219" s="19"/>
-      <c r="B219" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="C219" s="74" t="str">
+      <c r="A219" s="17"/>
+      <c r="B219" s="16" t="s">
+        <v>174</v>
+      </c>
+      <c r="C219" s="30" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85767","C85767")</f>
         <v>C85767</v>
       </c>
     </row>
     <row r="220" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="27"/>
-      <c r="B220" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="C220" s="75" t="str">
+      <c r="A220" s="22"/>
+      <c r="B220" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="C220" s="31" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85767","C85767")</f>
         <v>C85767</v>
       </c>
     </row>
     <row r="221" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="B221" s="39"/>
-      <c r="C221" s="40"/>
+      <c r="A221" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B221" s="45"/>
+      <c r="C221" s="46"/>
     </row>
     <row r="222" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A222" s="23"/>
+      <c r="A222" s="19"/>
       <c r="B222" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C222" s="83" t="str">
+        <v>176</v>
+      </c>
+      <c r="C222" s="33" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85776","C85776")</f>
         <v>C85776</v>
       </c>
     </row>
     <row r="223" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A223" s="27"/>
-      <c r="B223" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="C223" s="75" t="str">
+      <c r="A223" s="22"/>
+      <c r="B223" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C223" s="31" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85776","C85776")</f>
         <v>C85776</v>
       </c>
     </row>
     <row r="224" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A224" s="32"/>
-      <c r="B224" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="C224" s="72" t="str">
+      <c r="A224" s="38"/>
+      <c r="B224" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C224" s="41" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85776","C85776")</f>
         <v>C85776</v>
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A225" s="33"/>
-      <c r="B225" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="C225" s="65"/>
+      <c r="A225" s="39"/>
+      <c r="B225" s="37" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B298"," - (browse) drawing")</f>
+        <v xml:space="preserve"> - (browse) drawing</v>
+      </c>
+      <c r="C225" s="42"/>
     </row>
     <row r="226" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A226" s="34"/>
-      <c r="B226" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="C226" s="66"/>
+      <c r="A226" s="40"/>
+      <c r="B226" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C226" s="43"/>
     </row>
     <row r="227" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A227" s="32"/>
-      <c r="B227" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="C227" s="72" t="str">
+      <c r="A227" s="38"/>
+      <c r="B227" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C227" s="41" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85776","C85776")</f>
         <v>C85776</v>
       </c>
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A228" s="33"/>
-      <c r="B228" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C228" s="65"/>
+      <c r="A228" s="39"/>
+      <c r="B228" s="37" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B310"," - (apicbf) drawing_tree")</f>
+        <v xml:space="preserve"> - (apicbf) drawing_tree</v>
+      </c>
+      <c r="C228" s="42"/>
     </row>
     <row r="229" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A229" s="34"/>
-      <c r="B229" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="C229" s="66"/>
+      <c r="A229" s="40"/>
+      <c r="B229" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C229" s="43"/>
     </row>
     <row r="230" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A230" s="27"/>
+      <c r="A230" s="22"/>
       <c r="B230" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="C230" s="75" t="str">
+        <v>180</v>
+      </c>
+      <c r="C230" s="31" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85776","C85776")</f>
         <v>C85776</v>
       </c>
     </row>
     <row r="231" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A231" s="27"/>
-      <c r="B231" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="C231" s="75" t="str">
+      <c r="A231" s="22"/>
+      <c r="B231" s="16" t="s">
+        <v>181</v>
+      </c>
+      <c r="C231" s="31" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85776","C85776")</f>
         <v>C85776</v>
       </c>
     </row>
     <row r="232" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="32"/>
+      <c r="A232" s="38"/>
       <c r="B232" s="13" t="s">
-        <v>197</v>
-      </c>
-      <c r="C232" s="72" t="str">
+        <v>182</v>
+      </c>
+      <c r="C232" s="41" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85776","C85776")</f>
         <v>C85776</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A233" s="33"/>
-      <c r="B233" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="C233" s="65"/>
+      <c r="A233" s="39"/>
+      <c r="B233" s="36" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B1143"," - (browse) supplier")</f>
+        <v xml:space="preserve"> - (browse) supplier</v>
+      </c>
+      <c r="C233" s="42"/>
     </row>
     <row r="234" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A234" s="34"/>
-      <c r="B234" s="31" t="s">
-        <v>199</v>
-      </c>
-      <c r="C234" s="66"/>
+      <c r="A234" s="40"/>
+      <c r="B234" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="C234" s="43"/>
     </row>
     <row r="235" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A235" s="32"/>
+      <c r="A235" s="38"/>
       <c r="B235" s="13" t="s">
-        <v>202</v>
-      </c>
-      <c r="C235" s="72" t="str">
+        <v>186</v>
+      </c>
+      <c r="C235" s="41" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85776","C85776")</f>
         <v>C85776</v>
       </c>
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A236" s="33"/>
-      <c r="B236" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="C236" s="65"/>
+      <c r="A236" s="39"/>
+      <c r="B236" s="36" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B994"," - (browse) site")</f>
+        <v xml:space="preserve"> - (browse) site</v>
+      </c>
+      <c r="C236" s="42"/>
     </row>
     <row r="237" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A237" s="34"/>
-      <c r="B237" s="31" t="s">
-        <v>204</v>
-      </c>
-      <c r="C237" s="66"/>
+      <c r="A237" s="40"/>
+      <c r="B237" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="C237" s="43"/>
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A238" s="35"/>
+      <c r="A238" s="48"/>
       <c r="B238" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="C238" s="84" t="str">
+        <v>189</v>
+      </c>
+      <c r="C238" s="51" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85776","C85776")</f>
         <v>C85776</v>
       </c>
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A239" s="36"/>
-      <c r="B239" s="20" t="s">
+      <c r="A239" s="49"/>
+      <c r="B239" s="14" t="s">
+        <v>151</v>
+      </c>
+      <c r="C239" s="52"/>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="49"/>
+      <c r="B240" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="C240" s="52"/>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="49"/>
+      <c r="B241" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="C241" s="52"/>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="49"/>
+      <c r="B242" s="14" t="s">
+        <v>154</v>
+      </c>
+      <c r="C242" s="52"/>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="49"/>
+      <c r="B243" s="14" t="s">
+        <v>155</v>
+      </c>
+      <c r="C243" s="52"/>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="49"/>
+      <c r="B244" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="C244" s="52"/>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="49"/>
+      <c r="B245" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="C245" s="52"/>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="49"/>
+      <c r="B246" s="14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C246" s="52"/>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="49"/>
+      <c r="B247" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="C247" s="52"/>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="50"/>
+      <c r="B248" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="C239" s="67"/>
-    </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A240" s="36"/>
-      <c r="B240" s="20" t="s">
+      <c r="C248" s="53"/>
+    </row>
+    <row r="249" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A249" s="24"/>
+      <c r="B249" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="C249" s="34" t="str">
+        <f t="shared" ref="C249:C254" si="6">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85776","C85776")</f>
+        <v>C85776</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A250" s="24"/>
+      <c r="B250" s="5" t="s">
+        <v>193</v>
+      </c>
+      <c r="C250" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v>C85776</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A251" s="24"/>
+      <c r="B251" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C251" s="34" t="str">
+        <f t="shared" si="6"/>
+        <v>C85776</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A252" s="22"/>
+      <c r="B252" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="C252" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>C85776</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A253" s="22"/>
+      <c r="B253" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="C253" s="31" t="str">
+        <f t="shared" si="6"/>
+        <v>C85776</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="48"/>
+      <c r="B254" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="C254" s="51" t="str">
+        <f t="shared" si="6"/>
+        <v>C85776</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="49"/>
+      <c r="B255" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="C255" s="52"/>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="49"/>
+      <c r="B256" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="C256" s="52"/>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="49"/>
+      <c r="B257" s="14" t="s">
+        <v>199</v>
+      </c>
+      <c r="C257" s="52"/>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="49"/>
+      <c r="B258" s="14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C258" s="52"/>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="49"/>
+      <c r="B259" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="C259" s="52"/>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="49"/>
+      <c r="B260" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="C260" s="52"/>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="49"/>
+      <c r="B261" s="14" t="s">
+        <v>203</v>
+      </c>
+      <c r="C261" s="52"/>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="49"/>
+      <c r="B262" s="14" t="s">
+        <v>204</v>
+      </c>
+      <c r="C262" s="52"/>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="49"/>
+      <c r="B263" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="C263" s="52"/>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="49"/>
+      <c r="B264" s="14" t="s">
+        <v>206</v>
+      </c>
+      <c r="C264" s="52"/>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="49"/>
+      <c r="B265" s="14" t="s">
         <v>207</v>
       </c>
-      <c r="C240" s="67"/>
-    </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A241" s="36"/>
-      <c r="B241" s="20" t="s">
+      <c r="C265" s="52"/>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="50"/>
+      <c r="B266" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C241" s="67"/>
-    </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A242" s="36"/>
-      <c r="B242" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C242" s="67"/>
-    </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A243" s="36"/>
-      <c r="B243" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="C243" s="67"/>
-    </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A244" s="36"/>
-      <c r="B244" s="20" t="s">
-        <v>172</v>
-      </c>
-      <c r="C244" s="67"/>
-    </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A245" s="36"/>
-      <c r="B245" s="20" t="s">
-        <v>254</v>
-      </c>
-      <c r="C245" s="67"/>
-    </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A246" s="36"/>
-      <c r="B246" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="C246" s="67"/>
-    </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A247" s="36"/>
-      <c r="B247" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="C247" s="67"/>
-    </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A248" s="37"/>
-      <c r="B248" s="5" t="s">
-        <v>179</v>
-      </c>
-      <c r="C248" s="68"/>
-    </row>
-    <row r="249" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A249" s="29"/>
-      <c r="B249" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="C249" s="85" t="str">
+      <c r="C266" s="53"/>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="48"/>
+      <c r="B267" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="C267" s="51" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85776","C85776")</f>
         <v>C85776</v>
       </c>
     </row>
-    <row r="250" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A250" s="29"/>
-      <c r="B250" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="C250" s="85" t="str">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="49"/>
+      <c r="B268" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="C268" s="52"/>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="49"/>
+      <c r="B269" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="C269" s="52"/>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="50"/>
+      <c r="B270" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C270" s="53"/>
+    </row>
+    <row r="271" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A271" s="24"/>
+      <c r="B271" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="C271" s="34" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85776","C85776")</f>
         <v>C85776</v>
       </c>
     </row>
-    <row r="251" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A251" s="29"/>
-      <c r="B251" s="5" t="s">
-        <v>211</v>
-      </c>
-      <c r="C251" s="85" t="str">
+    <row r="272" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A272" s="24"/>
+      <c r="B272" s="5" t="s">
+        <v>212</v>
+      </c>
+      <c r="C272" s="34" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85776","C85776")</f>
         <v>C85776</v>
       </c>
     </row>
-    <row r="252" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A252" s="27"/>
-      <c r="B252" s="21" t="s">
-        <v>209</v>
-      </c>
-      <c r="C252" s="75" t="str">
+    <row r="273" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A273" s="24"/>
+      <c r="B273" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C273" s="34" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85776","C85776")</f>
         <v>C85776</v>
       </c>
     </row>
-    <row r="253" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A253" s="27"/>
-      <c r="B253" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="C253" s="75" t="str">
+    <row r="274" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A274" s="17"/>
+      <c r="B274" s="16" t="s">
+        <v>210</v>
+      </c>
+      <c r="C274" s="30" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85776","C85776")</f>
         <v>C85776</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A254" s="35"/>
-      <c r="B254" s="13" t="s">
-        <v>213</v>
-      </c>
-      <c r="C254" s="84" t="str">
+    <row r="275" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A275" s="22"/>
+      <c r="B275" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C275" s="31" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85776","C85776")</f>
         <v>C85776</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A255" s="36"/>
-      <c r="B255" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="C255" s="67"/>
-    </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A256" s="36"/>
-      <c r="B256" s="20" t="s">
+    <row r="276" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A276" s="54" t="s">
         <v>215</v>
       </c>
-      <c r="C256" s="67"/>
-    </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A257" s="36"/>
-      <c r="B257" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="C257" s="67"/>
-    </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A258" s="36"/>
-      <c r="B258" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="C258" s="67"/>
-    </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A259" s="36"/>
-      <c r="B259" s="20" t="s">
+      <c r="B276" s="55"/>
+      <c r="C276" s="56"/>
+    </row>
+    <row r="277" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A277" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B277" s="45"/>
+      <c r="C277" s="46"/>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="39"/>
+      <c r="B278" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="C259" s="67"/>
-    </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A260" s="36"/>
-      <c r="B260" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="C260" s="67"/>
-    </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A261" s="36"/>
-      <c r="B261" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="C261" s="67"/>
-    </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A262" s="36"/>
-      <c r="B262" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="C262" s="67"/>
-    </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A263" s="36"/>
-      <c r="B263" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="C263" s="67"/>
-    </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A264" s="36"/>
-      <c r="B264" s="20" t="s">
-        <v>223</v>
-      </c>
-      <c r="C264" s="67"/>
-    </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A265" s="36"/>
-      <c r="B265" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="C265" s="67"/>
-    </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A266" s="37"/>
-      <c r="B266" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C266" s="68"/>
-    </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A267" s="35"/>
-      <c r="B267" s="13" t="s">
-        <v>226</v>
-      </c>
-      <c r="C267" s="84" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85776","C85776")</f>
-        <v>C85776</v>
-      </c>
-    </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A268" s="36"/>
-      <c r="B268" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="C268" s="67"/>
-    </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A269" s="36"/>
-      <c r="B269" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="C269" s="67"/>
-    </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A270" s="37"/>
-      <c r="B270" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C270" s="68"/>
-    </row>
-    <row r="271" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A271" s="29"/>
-      <c r="B271" s="5" t="s">
-        <v>230</v>
-      </c>
-      <c r="C271" s="85" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85776","C85776")</f>
-        <v>C85776</v>
-      </c>
-    </row>
-    <row r="272" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A272" s="29"/>
-      <c r="B272" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C272" s="85" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85776","C85776")</f>
-        <v>C85776</v>
-      </c>
-    </row>
-    <row r="273" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A273" s="29"/>
-      <c r="B273" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C273" s="85" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85776","C85776")</f>
-        <v>C85776</v>
-      </c>
-    </row>
-    <row r="274" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A274" s="19"/>
-      <c r="B274" s="21" t="s">
-        <v>227</v>
-      </c>
-      <c r="C274" s="74" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85776","C85776")</f>
-        <v>C85776</v>
-      </c>
-    </row>
-    <row r="275" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A275" s="27"/>
-      <c r="B275" s="21" t="s">
-        <v>228</v>
-      </c>
-      <c r="C275" s="75" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85776","C85776")</f>
-        <v>C85776</v>
-      </c>
-    </row>
-    <row r="276" spans="1:3" ht="24" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A276" s="44" t="s">
-        <v>232</v>
-      </c>
-      <c r="B276" s="45"/>
-      <c r="C276" s="46"/>
-    </row>
-    <row r="277" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A277" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="B277" s="39"/>
-      <c r="C277" s="40"/>
-    </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A278" s="33"/>
-      <c r="B278" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C278" s="76" t="str">
+      <c r="C278" s="47" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85767","C85767")</f>
         <v>C85767</v>
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A279" s="33"/>
+      <c r="A279" s="39"/>
       <c r="B279" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="C279" s="65"/>
+        <v>150</v>
+      </c>
+      <c r="C279" s="42"/>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A280" s="33"/>
+      <c r="A280" s="39"/>
       <c r="B280" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="C280" s="65"/>
+        <v>219</v>
+      </c>
+      <c r="C280" s="42"/>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A281" s="33"/>
+      <c r="A281" s="39"/>
       <c r="B281" s="12" t="s">
-        <v>237</v>
-      </c>
-      <c r="C281" s="65"/>
+        <v>220</v>
+      </c>
+      <c r="C281" s="42"/>
     </row>
     <row r="282" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A282" s="33"/>
+      <c r="A282" s="39"/>
       <c r="B282" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="C282" s="65"/>
+        <v>221</v>
+      </c>
+      <c r="C282" s="42"/>
     </row>
     <row r="283" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A283" s="33"/>
+      <c r="A283" s="39"/>
       <c r="B283" s="12" t="s">
-        <v>239</v>
-      </c>
-      <c r="C283" s="65"/>
+        <v>222</v>
+      </c>
+      <c r="C283" s="42"/>
     </row>
     <row r="284" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A284" s="33"/>
+      <c r="A284" s="39"/>
       <c r="B284" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="C284" s="65"/>
+        <v>223</v>
+      </c>
+      <c r="C284" s="42"/>
     </row>
     <row r="285" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A285" s="33"/>
+      <c r="A285" s="39"/>
       <c r="B285" s="12" t="s">
-        <v>241</v>
-      </c>
-      <c r="C285" s="65"/>
+        <v>224</v>
+      </c>
+      <c r="C285" s="42"/>
     </row>
     <row r="286" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A286" s="33"/>
+      <c r="A286" s="39"/>
       <c r="B286" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="C286" s="65"/>
+        <v>225</v>
+      </c>
+      <c r="C286" s="42"/>
     </row>
     <row r="287" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A287" s="33"/>
+      <c r="A287" s="39"/>
       <c r="B287" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="C287" s="65"/>
+        <v>226</v>
+      </c>
+      <c r="C287" s="42"/>
     </row>
     <row r="288" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A288" s="33"/>
+      <c r="A288" s="39"/>
       <c r="B288" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="C288" s="65"/>
+        <v>227</v>
+      </c>
+      <c r="C288" s="42"/>
     </row>
     <row r="289" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A289" s="33"/>
+      <c r="A289" s="39"/>
       <c r="B289" s="12" t="s">
-        <v>233</v>
-      </c>
-      <c r="C289" s="65"/>
+        <v>216</v>
+      </c>
+      <c r="C289" s="42"/>
     </row>
     <row r="290" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A290" s="33"/>
+      <c r="A290" s="39"/>
       <c r="B290" s="12" t="s">
-        <v>245</v>
-      </c>
-      <c r="C290" s="65"/>
+        <v>228</v>
+      </c>
+      <c r="C290" s="42"/>
     </row>
     <row r="291" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A291" s="34"/>
+      <c r="A291" s="40"/>
       <c r="B291" s="12" t="s">
-        <v>234</v>
-      </c>
-      <c r="C291" s="66"/>
+        <v>217</v>
+      </c>
+      <c r="C291" s="43"/>
     </row>
     <row r="292" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A292" s="27"/>
-      <c r="B292" s="21" t="s">
-        <v>246</v>
-      </c>
-      <c r="C292" s="75" t="str">
+      <c r="A292" s="22"/>
+      <c r="B292" s="16" t="s">
+        <v>229</v>
+      </c>
+      <c r="C292" s="31" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85767","C85767")</f>
         <v>C85767</v>
       </c>
     </row>
     <row r="293" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A293" s="27"/>
-      <c r="B293" s="21" t="s">
-        <v>247</v>
-      </c>
-      <c r="C293" s="75" t="str">
+      <c r="A293" s="22"/>
+      <c r="B293" s="16" t="s">
+        <v>230</v>
+      </c>
+      <c r="C293" s="31" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85767","C85767")</f>
         <v>C85767</v>
       </c>
     </row>
     <row r="294" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A294" s="38" t="s">
-        <v>138</v>
-      </c>
-      <c r="B294" s="39"/>
-      <c r="C294" s="40"/>
+      <c r="A294" s="44" t="s">
+        <v>124</v>
+      </c>
+      <c r="B294" s="45"/>
+      <c r="C294" s="46"/>
     </row>
     <row r="295" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A295" s="33"/>
-      <c r="B295" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="C295" s="76" t="str">
+      <c r="A295" s="39"/>
+      <c r="B295" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="C295" s="47" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85777","C85777")</f>
         <v>C85777</v>
       </c>
     </row>
     <row r="296" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A296" s="33"/>
-      <c r="B296" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="C296" s="65"/>
+      <c r="A296" s="39"/>
+      <c r="B296" s="14" t="s">
+        <v>150</v>
+      </c>
+      <c r="C296" s="42"/>
     </row>
     <row r="297" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A297" s="33"/>
-      <c r="B297" s="20" t="s">
+      <c r="A297" s="39"/>
+      <c r="B297" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="C297" s="42"/>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="39"/>
+      <c r="B298" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="C298" s="42"/>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="39"/>
+      <c r="B299" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="C299" s="42"/>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="39"/>
+      <c r="B300" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="C300" s="42"/>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="39"/>
+      <c r="B301" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="C301" s="42"/>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="39"/>
+      <c r="B302" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="C302" s="42"/>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="39"/>
+      <c r="B303" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="C303" s="42"/>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="39"/>
+      <c r="B304" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="C304" s="42"/>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="39"/>
+      <c r="B305" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="C305" s="42"/>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="40"/>
+      <c r="B306" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C306" s="43"/>
+    </row>
+    <row r="307" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A307" s="22"/>
+      <c r="B307" s="16" t="s">
+        <v>232</v>
+      </c>
+      <c r="C307" s="31" t="str">
+        <f t="shared" ref="C307:C312" si="7">HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85777","C85777")</f>
+        <v>C85777</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A308" s="22"/>
+      <c r="B308" s="16" t="s">
+        <v>233</v>
+      </c>
+      <c r="C308" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>C85777</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A309" s="22"/>
+      <c r="B309" s="16" t="s">
+        <v>235</v>
+      </c>
+      <c r="C309" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>C85777</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="A310" s="22"/>
+      <c r="B310" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="C310" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>C85777</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A311" s="22"/>
+      <c r="B311" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C297" s="65"/>
-    </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A298" s="33"/>
-      <c r="B298" s="20" t="s">
-        <v>237</v>
-      </c>
-      <c r="C298" s="65"/>
-    </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A299" s="33"/>
-      <c r="B299" s="20" t="s">
-        <v>239</v>
-      </c>
-      <c r="C299" s="65"/>
-    </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A300" s="33"/>
-      <c r="B300" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="C300" s="65"/>
-    </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A301" s="33"/>
-      <c r="B301" s="20" t="s">
-        <v>241</v>
-      </c>
-      <c r="C301" s="65"/>
-    </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A302" s="33"/>
-      <c r="B302" s="20" t="s">
-        <v>242</v>
-      </c>
-      <c r="C302" s="65"/>
-    </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A303" s="33"/>
-      <c r="B303" s="20" t="s">
-        <v>243</v>
-      </c>
-      <c r="C303" s="65"/>
-    </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A304" s="33"/>
-      <c r="B304" s="20" t="s">
-        <v>244</v>
-      </c>
-      <c r="C304" s="65"/>
-    </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A305" s="33"/>
-      <c r="B305" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="C305" s="65"/>
-    </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A306" s="34"/>
-      <c r="B306" s="5" t="s">
-        <v>234</v>
-      </c>
-      <c r="C306" s="66"/>
-    </row>
-    <row r="307" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A307" s="27"/>
-      <c r="B307" s="21" t="s">
-        <v>249</v>
-      </c>
-      <c r="C307" s="75" t="str">
+      <c r="C311" s="31" t="str">
+        <f t="shared" si="7"/>
+        <v>C85777</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A312" s="38"/>
+      <c r="B312" s="18" t="s">
+        <v>178</v>
+      </c>
+      <c r="C312" s="41" t="str">
+        <f t="shared" si="7"/>
+        <v>C85777</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="39"/>
+      <c r="B313" s="37" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B298"," - (browse) drawing")</f>
+        <v xml:space="preserve"> - (browse) drawing</v>
+      </c>
+      <c r="C313" s="42"/>
+    </row>
+    <row r="314" spans="1:3" ht="60" x14ac:dyDescent="0.25">
+      <c r="A314" s="40"/>
+      <c r="B314" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="C314" s="43"/>
+    </row>
+    <row r="315" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A315" s="38"/>
+      <c r="B315" s="18" t="s">
+        <v>179</v>
+      </c>
+      <c r="C315" s="41" t="str">
         <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85777","C85777")</f>
         <v>C85777</v>
       </c>
     </row>
-    <row r="308" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A308" s="27"/>
-      <c r="B308" s="21" t="s">
-        <v>250</v>
-      </c>
-      <c r="C308" s="75" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85777","C85777")</f>
-        <v>C85777</v>
-      </c>
-    </row>
-    <row r="309" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A309" s="27"/>
-      <c r="B309" s="21" t="s">
-        <v>252</v>
-      </c>
-      <c r="C309" s="75" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85777","C85777")</f>
-        <v>C85777</v>
-      </c>
-    </row>
-    <row r="310" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A310" s="27"/>
-      <c r="B310" s="21" t="s">
-        <v>251</v>
-      </c>
-      <c r="C310" s="75" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85777","C85777")</f>
-        <v>C85777</v>
-      </c>
-    </row>
-    <row r="311" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A311" s="27"/>
-      <c r="B311" s="21" t="s">
-        <v>253</v>
-      </c>
-      <c r="C311" s="75" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85777","C85777")</f>
-        <v>C85777</v>
-      </c>
-    </row>
-    <row r="312" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A312" s="32"/>
-      <c r="B312" s="22" t="s">
-        <v>192</v>
-      </c>
-      <c r="C312" s="72" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85777","C85777")</f>
-        <v>C85777</v>
-      </c>
-    </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A313" s="33"/>
-      <c r="B313" s="24" t="s">
-        <v>193</v>
-      </c>
-      <c r="C313" s="65"/>
-    </row>
-    <row r="314" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A314" s="34"/>
-      <c r="B314" s="30" t="s">
-        <v>201</v>
-      </c>
-      <c r="C314" s="66"/>
-    </row>
-    <row r="315" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A315" s="32"/>
-      <c r="B315" s="22" t="s">
-        <v>194</v>
-      </c>
-      <c r="C315" s="72" t="str">
-        <f>HYPERLINK("https://ams.testrail.com/index.php?/cases/view/85777","C85777")</f>
-        <v>C85777</v>
-      </c>
-    </row>
     <row r="316" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A316" s="33"/>
-      <c r="B316" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C316" s="65"/>
+      <c r="A316" s="39"/>
+      <c r="B316" s="37" t="str">
+        <f>HYPERLINK("[..\DesignTable.xlsx]GroupDesign!B310"," - (apicbf) drawing_tree")</f>
+        <v xml:space="preserve"> - (apicbf) drawing_tree</v>
+      </c>
+      <c r="C316" s="42"/>
     </row>
     <row r="317" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A317" s="34"/>
-      <c r="B317" s="30" t="s">
-        <v>200</v>
-      </c>
-      <c r="C317" s="66"/>
+      <c r="A317" s="40"/>
+      <c r="B317" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C317" s="43"/>
     </row>
   </sheetData>
   <mergeCells count="88">
-    <mergeCell ref="A315:A317"/>
-    <mergeCell ref="C315:C317"/>
-    <mergeCell ref="A294:C294"/>
-    <mergeCell ref="A295:A306"/>
-    <mergeCell ref="C295:C306"/>
-    <mergeCell ref="A312:A314"/>
-    <mergeCell ref="C312:C314"/>
-    <mergeCell ref="A277:C277"/>
-    <mergeCell ref="A278:A291"/>
-    <mergeCell ref="C278:C291"/>
-    <mergeCell ref="A254:A266"/>
-    <mergeCell ref="C254:C266"/>
-    <mergeCell ref="A267:A270"/>
-    <mergeCell ref="C267:C270"/>
-    <mergeCell ref="A276:C276"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="C63:C64"/>
-    <mergeCell ref="A57:A58"/>
-    <mergeCell ref="C57:C58"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="C59:C60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A232:A234"/>
+    <mergeCell ref="C232:C234"/>
+    <mergeCell ref="A235:A237"/>
+    <mergeCell ref="C235:C237"/>
+    <mergeCell ref="A238:A248"/>
+    <mergeCell ref="C238:C248"/>
+    <mergeCell ref="A221:C221"/>
+    <mergeCell ref="A224:A226"/>
+    <mergeCell ref="C224:C226"/>
+    <mergeCell ref="A227:A229"/>
+    <mergeCell ref="C227:C229"/>
+    <mergeCell ref="A191:A193"/>
+    <mergeCell ref="C191:C193"/>
+    <mergeCell ref="A194:A212"/>
+    <mergeCell ref="C194:C212"/>
+    <mergeCell ref="A214:A218"/>
+    <mergeCell ref="C214:C218"/>
+    <mergeCell ref="A184:C184"/>
+    <mergeCell ref="A185:A190"/>
+    <mergeCell ref="C185:C190"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="C170:C171"/>
+    <mergeCell ref="A172:A173"/>
+    <mergeCell ref="C172:C173"/>
+    <mergeCell ref="A183:C183"/>
+    <mergeCell ref="A158:C158"/>
+    <mergeCell ref="A159:C159"/>
+    <mergeCell ref="A166:A167"/>
+    <mergeCell ref="C166:C167"/>
+    <mergeCell ref="A168:A169"/>
+    <mergeCell ref="C168:C169"/>
+    <mergeCell ref="A139:A140"/>
+    <mergeCell ref="C139:C140"/>
+    <mergeCell ref="A141:A142"/>
+    <mergeCell ref="C141:C142"/>
+    <mergeCell ref="A144:A148"/>
+    <mergeCell ref="C144:C148"/>
+    <mergeCell ref="A113:A122"/>
+    <mergeCell ref="C113:C122"/>
+    <mergeCell ref="C123:C131"/>
+    <mergeCell ref="A123:A131"/>
+    <mergeCell ref="A137:A138"/>
+    <mergeCell ref="C137:C138"/>
+    <mergeCell ref="A102:A105"/>
+    <mergeCell ref="C102:C105"/>
+    <mergeCell ref="A106:A109"/>
+    <mergeCell ref="C106:C109"/>
+    <mergeCell ref="A110:A111"/>
+    <mergeCell ref="C110:C111"/>
     <mergeCell ref="A70:A75"/>
     <mergeCell ref="C70:C75"/>
     <mergeCell ref="A82:A91"/>
@@ -4282,55 +4248,29 @@
     <mergeCell ref="A39:C39"/>
     <mergeCell ref="A40:A51"/>
     <mergeCell ref="C40:C51"/>
-    <mergeCell ref="A102:A105"/>
-    <mergeCell ref="C102:C105"/>
-    <mergeCell ref="A106:A109"/>
-    <mergeCell ref="C106:C109"/>
-    <mergeCell ref="A110:A111"/>
-    <mergeCell ref="C110:C111"/>
-    <mergeCell ref="A113:A122"/>
-    <mergeCell ref="C113:C122"/>
-    <mergeCell ref="C123:C131"/>
-    <mergeCell ref="A123:A131"/>
-    <mergeCell ref="A137:A138"/>
-    <mergeCell ref="C137:C138"/>
-    <mergeCell ref="A139:A140"/>
-    <mergeCell ref="C139:C140"/>
-    <mergeCell ref="A141:A142"/>
-    <mergeCell ref="C141:C142"/>
-    <mergeCell ref="A144:A148"/>
-    <mergeCell ref="C144:C148"/>
-    <mergeCell ref="A158:C158"/>
-    <mergeCell ref="A159:C159"/>
-    <mergeCell ref="A166:A167"/>
-    <mergeCell ref="C166:C167"/>
-    <mergeCell ref="A168:A169"/>
-    <mergeCell ref="C168:C169"/>
-    <mergeCell ref="A184:C184"/>
-    <mergeCell ref="A185:A190"/>
-    <mergeCell ref="C185:C190"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="C170:C171"/>
-    <mergeCell ref="A172:A173"/>
-    <mergeCell ref="C172:C173"/>
-    <mergeCell ref="A183:C183"/>
-    <mergeCell ref="A191:A193"/>
-    <mergeCell ref="C191:C193"/>
-    <mergeCell ref="A194:A212"/>
-    <mergeCell ref="C194:C212"/>
-    <mergeCell ref="A214:A218"/>
-    <mergeCell ref="C214:C218"/>
-    <mergeCell ref="A221:C221"/>
-    <mergeCell ref="A224:A226"/>
-    <mergeCell ref="C224:C226"/>
-    <mergeCell ref="A227:A229"/>
-    <mergeCell ref="C227:C229"/>
-    <mergeCell ref="A232:A234"/>
-    <mergeCell ref="C232:C234"/>
-    <mergeCell ref="A235:A237"/>
-    <mergeCell ref="C235:C237"/>
-    <mergeCell ref="A238:A248"/>
-    <mergeCell ref="C238:C248"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="C63:C64"/>
+    <mergeCell ref="A57:A58"/>
+    <mergeCell ref="C57:C58"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="C59:C60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="C61:C62"/>
+    <mergeCell ref="A277:C277"/>
+    <mergeCell ref="A278:A291"/>
+    <mergeCell ref="C278:C291"/>
+    <mergeCell ref="A254:A266"/>
+    <mergeCell ref="C254:C266"/>
+    <mergeCell ref="A267:A270"/>
+    <mergeCell ref="C267:C270"/>
+    <mergeCell ref="A276:C276"/>
+    <mergeCell ref="A315:A317"/>
+    <mergeCell ref="C315:C317"/>
+    <mergeCell ref="A294:C294"/>
+    <mergeCell ref="A295:A306"/>
+    <mergeCell ref="C295:C306"/>
+    <mergeCell ref="A312:A314"/>
+    <mergeCell ref="C312:C314"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
